--- a/biology/Zoologie/Corixa/Corixa.xlsx
+++ b/biology/Zoologie/Corixa/Corixa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corixa est un genre d'insectes hétéroptères (punaises) strictement aquatiques de la famille des Corixidae et de la sous-famille des Corixinae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1er février 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1er février 2023) :
 Corixa affinis Leach, 1817
 Corixa choprai Hutchinson, 1940
 Corixa connexa (Lundblad, 1933)
@@ -528,8 +542,8 @@
 Corixa punctata (Illiger, 1807)
 Corixa septemlineata Paiva in Paiva &amp; Dover, 1918
 Espèces fossiles
-†Corixa elegans von Schlechtendal, 1894[3], une espèce éteinte datant de l'Oligocène trouvée dans la formation de Rott (lignite) en Allemagne
-†Corixa parvoculata Zhang, 1989[4] et †Corixa triquetra Zhang, 1989, deux espèces datant du Miocène trouvées dans la formation de Shanwang, dans la province de Shandong, en Chine</t>
+†Corixa elegans von Schlechtendal, 1894, une espèce éteinte datant de l'Oligocène trouvée dans la formation de Rott (lignite) en Allemagne
+†Corixa parvoculata Zhang, 1989 et †Corixa triquetra Zhang, 1989, deux espèces datant du Miocène trouvées dans la formation de Shanwang, dans la province de Shandong, en Chine</t>
         </is>
       </c>
     </row>
